--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,154 +519,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.75%</t>
+          <t>-%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>14.69</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16.70</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-0.26</t>
+          <t>-0.35</t>
         </is>
       </c>
     </row>
@@ -681,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,72 +652,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
@@ -811,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,38 +735,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5097999999999999</v>
+        <v>0.1095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3192</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2392</v>
+        <v>0.0355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1692</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1095</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09130000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0355</v>
-      </c>
-      <c r="E3" t="n">
         <v>-0.1006</v>
       </c>
     </row>
@@ -895,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,52 +801,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>-16.91%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>-4.90%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.38%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-16.91%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-4.90%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>0.49</t>
         </is>
@@ -996,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,32 +864,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABEV3</t>
+          <t>AERI3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>34.34%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>34.34%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
